--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>4.930115226412335</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>-1.532700904233819</v>
+        <v>0.3630458632513767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>1.457587285166628</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.31761954538927</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>0.4426822042908451</v>
+        <v>0.507956838644974</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.9140166223623569</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>2.771597318554297</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>6.701211448050892</v>
+        <v>5.6395352704941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>2.585942866987878</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.799362536952542</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>-0.7668626796801914</v>
+        <v>1.724360951547554</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>4.253963781362402</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.123182427147152</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>9.032110753380396</v>
+        <v>-0.6955733540840336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>1.752870900283909</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>7.317297369612819</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>13.00993884368147</v>
+        <v>4.300339264728548</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>-1.479696720105139</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>4.260319658857736</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>0.6047141048934668</v>
+        <v>8.296896928314457</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>3.900127535411246</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>-0.05262415810141086</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>0.4863674759896908</v>
+        <v>-2.092856741436233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>0.03947433952959933</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.459778471779982</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.972186691759292</v>
+        <v>-1.259568900987018</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>2.192778679161944</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>3.002208343813528</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>3.081053896920216</v>
+        <v>0.5033587260849126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>3.40836448860673</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>4.020433260014977</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>3.428490012850016</v>
+        <v>-0.3010260522302355</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>2.799070570134488</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>3.53224976671227</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>3.278571461710422</v>
+        <v>3.825329033908775</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>4.195393191694419</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-0.985458715495402</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-0.9921235861016009</v>
+        <v>3.942709467505678</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>1.666553973046048</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-4.365687260408224</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.075048802121681</v>
+        <v>-0.2638638106667313</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>1.879266440112803</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>1.27347919322387</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-1.708172843366884</v>
+        <v>-0.04532879466145889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>-2.620683231370946</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-1.339436245206127</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-4.311060450245541</v>
+        <v>-3.179374983142691</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-3.036556262700274</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-2.51939929628594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-3.451527003230626</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-2.953443685011514</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>-2.083043781012928</v>
+      <c r="E19">
+        <v>-2.112604539331953</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-0.2638638106667313</v>
+        <v>-7.134843267358026</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.04532879466145889</v>
+        <v>-6.539839435602945</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-3.179374983142691</v>
+        <v>-5.419975784955133</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-2.51939929628594</v>
+        <v>1.613705666912457</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-2.112604539331953</v>
+        <v>-2.069018842407955</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>4.930115226412335</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.3630458632513767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.457587285166628</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.507956838644974</v>
+        <v>0.5079568386449518</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-0.9140166223623569</v>
+        <v>-0.9140166223623458</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>5.6395352704941</v>
+        <v>5.639535270494123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -497,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>-0.6955733540840336</v>
+        <v>-0.6955733540840225</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,7 +516,7 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>-1.479696720105139</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -548,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>-2.092856741436233</v>
+        <v>-2.092856741436244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>-1.259568900987018</v>
+        <v>-1.259568900987029</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +567,7 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>2.192778679161944</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="D11">
         <v>2017</v>
@@ -593,13 +584,13 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>3.40836448860673</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="D12">
         <v>2018</v>
       </c>
       <c r="E12">
-        <v>-0.3010260522302355</v>
+        <v>-0.3010260522302244</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>3.825329033908775</v>
+        <v>3.825329033908798</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -644,13 +635,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>1.666553973046048</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-7.134843267358026</v>
+        <v>-7.134843267358049</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +652,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>1.879266440112803</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-6.539839435602945</v>
+        <v>-6.539839435602913</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +669,13 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>-2.620683231370946</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="D17">
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-5.419975784955133</v>
+        <v>-5.419975784955122</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-3.036556262700274</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="D18">
         <v>2024</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>-2.069018842407955</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-0.7200474048664085</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-2.055952042396259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
